--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/20/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.686</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.94</v>
+        <v>12.919</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.714</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.27</v>
+        <v>12.913</v>
       </c>
     </row>
     <row r="9">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.3</v>
+        <v>-21.76</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.3</v>
+        <v>-21.776</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.396</v>
+        <v>13.143</v>
       </c>
     </row>
     <row r="13">
@@ -678,12 +678,12 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.494</v>
+        <v>12.911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.536</v>
+        <v>-21.279</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.06</v>
+        <v>12.862</v>
       </c>
     </row>
     <row r="23">
